--- a/raw-data/national_power.xlsx
+++ b/raw-data/national_power.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dshap\Documents\GOV-1006\russia_strong\raw-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF4EDD2-6679-4F4D-BF1B-E60A88934FF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B368DE6-CDB9-4552-9F74-7747D2CE89AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DF2540DC-2667-4EE2-B390-632B018A76A9}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
